--- a/data/coded_segments/md_3_1.xlsx
+++ b/data/coded_segments/md_3_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F275BFF-2B44-F94F-A76C-6B061ABDF63D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95051653-02C9-0642-B222-8BA474567C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="764">
   <si>
     <t>Color</t>
   </si>
@@ -1331,12 +1331,6 @@
   </si>
   <si>
     <t>7/7/18 10:12:00</t>
-  </si>
-  <si>
-    <t>1: 4642</t>
-  </si>
-  <si>
-    <t>1: 4651</t>
   </si>
   <si>
     <t>1: 4657</t>
@@ -2251,6 +2245,100 @@
   </si>
   <si>
     <t>10/29/18 11:36:00</t>
+  </si>
+  <si>
+    <t>1: 239</t>
+  </si>
+  <si>
+    <t>1: 261</t>
+  </si>
+  <si>
+    <t>Lactobacillus fermentum</t>
+  </si>
+  <si>
+    <t>11/8/18 14:22:00</t>
+  </si>
+  <si>
+    <t>1: 67</t>
+  </si>
+  <si>
+    <t>Acinetobacter 
+baumannii</t>
+  </si>
+  <si>
+    <t>11/8/18 14:23:00</t>
+  </si>
+  <si>
+    <t>11/12/18 12:36:00</t>
+  </si>
+  <si>
+    <t>1: 1710</t>
+  </si>
+  <si>
+    <t>1: 1713</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>1: 1715</t>
+  </si>
+  <si>
+    <t>1: 1718</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1: 3601</t>
+  </si>
+  <si>
+    <t>1: 3604</t>
+  </si>
+  <si>
+    <t>1: 3595</t>
+  </si>
+  <si>
+    <t>1: 3599</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>11/12/18 12:37:00</t>
+  </si>
+  <si>
+    <t>2: 4712</t>
+  </si>
+  <si>
+    <t>2: 4715</t>
+  </si>
+  <si>
+    <t>11/12/18 12:39:00</t>
+  </si>
+  <si>
+    <t>2: 4703</t>
+  </si>
+  <si>
+    <t>2: 4710</t>
+  </si>
+  <si>
+    <t>1: 1840</t>
+  </si>
+  <si>
+    <t>1: 1844</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>11/12/18 12:40:00</t>
+  </si>
+  <si>
+    <t>1: 1846</t>
+  </si>
+  <si>
+    <t>1: 1849</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7676,13 +7764,13 @@
         <v>0</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>89</v>
+        <v>434</v>
       </c>
       <c r="J121" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K121" s="4">
-        <v>4.8251000000000002E-2</v>
+        <v>9.6502000000000004E-2</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>20</v>
@@ -7705,25 +7793,25 @@
         <v>406</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="J122" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K122" s="4">
-        <v>9.6502000000000004E-2</v>
+        <v>6.2726000000000004E-2</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>20</v>
@@ -7732,7 +7820,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
@@ -7746,7 +7834,7 @@
         <v>406</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>437</v>
@@ -7758,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="J123" s="3">
         <v>13</v>
@@ -7773,7 +7861,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
@@ -7790,28 +7878,28 @@
         <v>86</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>441</v>
+        <v>110</v>
       </c>
       <c r="J124" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K124" s="4">
-        <v>6.2726000000000004E-2</v>
+        <v>4.8251000000000002E-2</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7828,31 +7916,31 @@
         <v>406</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>86</v>
+        <v>443</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J125" s="3">
+        <v>3</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1.4475E-2</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H125" s="3">
-        <v>0</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J125" s="3">
-        <v>10</v>
-      </c>
-      <c r="K125" s="4">
-        <v>4.8251000000000002E-2</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7869,19 +7957,19 @@
         <v>406</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H126" s="3">
-        <v>0</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="J126" s="3">
         <v>3</v>
@@ -7893,7 +7981,7 @@
         <v>20</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7910,31 +7998,31 @@
         <v>406</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>448</v>
+        <v>110</v>
       </c>
       <c r="J127" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K127" s="4">
-        <v>1.4475E-2</v>
+        <v>4.8251000000000002E-2</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7951,31 +8039,31 @@
         <v>406</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H128" s="3">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J128" s="3">
+        <v>9</v>
+      </c>
+      <c r="K128" s="4">
+        <v>4.3425999999999999E-2</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M128" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H128" s="3">
-        <v>0</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J128" s="3">
-        <v>10</v>
-      </c>
-      <c r="K128" s="4">
-        <v>4.8251000000000002E-2</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7992,19 +8080,19 @@
         <v>406</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H129" s="3">
-        <v>0</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="J129" s="3">
         <v>9</v>
@@ -8016,7 +8104,7 @@
         <v>20</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8033,31 +8121,31 @@
         <v>406</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>86</v>
+        <v>443</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="J130" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K130" s="4">
-        <v>4.3425999999999999E-2</v>
+        <v>1.4475E-2</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8074,19 +8162,19 @@
         <v>406</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J131" s="3">
         <v>3</v>
@@ -8098,7 +8186,7 @@
         <v>20</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8115,31 +8203,31 @@
         <v>406</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J132" s="3">
+        <v>8</v>
+      </c>
+      <c r="K132" s="4">
+        <v>3.8601000000000003E-2</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M132" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H132" s="3">
-        <v>0</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="J132" s="3">
-        <v>3</v>
-      </c>
-      <c r="K132" s="4">
-        <v>1.4475E-2</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8156,19 +8244,19 @@
         <v>406</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H133" s="3">
-        <v>0</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="J133" s="3">
         <v>8</v>
@@ -8180,7 +8268,7 @@
         <v>20</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8197,31 +8285,31 @@
         <v>406</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>86</v>
+        <v>443</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J134" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K134" s="4">
-        <v>3.8601000000000003E-2</v>
+        <v>9.6500000000000006E-3</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8238,19 +8326,19 @@
         <v>406</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F135" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H135" s="3">
-        <v>0</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="J135" s="3">
         <v>2</v>
@@ -8262,7 +8350,7 @@
         <v>20</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8279,31 +8367,31 @@
         <v>406</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J136" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K136" s="4">
-        <v>9.6500000000000006E-3</v>
+        <v>5.3075999999999998E-2</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8320,19 +8408,19 @@
         <v>406</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H137" s="3">
-        <v>0</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="J137" s="3">
         <v>11</v>
@@ -8344,7 +8432,7 @@
         <v>20</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8361,31 +8449,31 @@
         <v>406</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J138" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K138" s="4">
-        <v>5.3075999999999998E-2</v>
+        <v>1.4475E-2</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8402,19 +8490,19 @@
         <v>406</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J139" s="3">
         <v>3</v>
@@ -8426,7 +8514,7 @@
         <v>20</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8443,7 +8531,7 @@
         <v>406</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>468</v>
@@ -8455,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="J140" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K140" s="4">
-        <v>1.4475E-2</v>
+        <v>6.2726000000000004E-2</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8484,19 +8572,19 @@
         <v>406</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>86</v>
+        <v>472</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H141" s="3">
-        <v>0</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="J141" s="3">
         <v>13</v>
@@ -8508,7 +8596,7 @@
         <v>20</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8525,31 +8613,31 @@
         <v>406</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J142" s="3">
+        <v>2</v>
+      </c>
+      <c r="K142" s="4">
+        <v>9.6500000000000006E-3</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M142" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="H142" s="3">
-        <v>0</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="J142" s="3">
-        <v>13</v>
-      </c>
-      <c r="K142" s="4">
-        <v>6.2726000000000004E-2</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8566,19 +8654,19 @@
         <v>406</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H143" s="3">
-        <v>0</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="J143" s="3">
         <v>2</v>
@@ -8590,7 +8678,7 @@
         <v>20</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8604,34 +8692,34 @@
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J144" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K144" s="4">
-        <v>9.6500000000000006E-3</v>
+        <v>9.5403000000000002E-2</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8645,34 +8733,34 @@
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G145" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J145" s="3">
+        <v>12</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0.104076</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M145" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="H145" s="3">
-        <v>0</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="J145" s="3">
-        <v>11</v>
-      </c>
-      <c r="K145" s="4">
-        <v>9.5403000000000002E-2</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8686,34 +8774,34 @@
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J146" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K146" s="4">
-        <v>0.104076</v>
+        <v>8.6730000000000002E-2</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8727,34 +8815,34 @@
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J147" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K147" s="4">
-        <v>8.6730000000000002E-2</v>
+        <v>0.112749</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8768,34 +8856,34 @@
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J148" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K148" s="4">
-        <v>0.112749</v>
+        <v>9.5403000000000002E-2</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8809,34 +8897,34 @@
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J149" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K149" s="4">
-        <v>9.5403000000000002E-2</v>
+        <v>0.112749</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8850,34 +8938,34 @@
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>498</v>
+        <v>120</v>
       </c>
       <c r="J150" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K150" s="4">
-        <v>0.112749</v>
+        <v>0.104076</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8891,7 +8979,7 @@
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>86</v>
@@ -8906,19 +8994,19 @@
         <v>0</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>120</v>
+        <v>501</v>
       </c>
       <c r="J151" s="3">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K151" s="4">
-        <v>0.104076</v>
+        <v>0.25151800000000002</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8932,34 +9020,34 @@
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>501</v>
+        <v>272</v>
       </c>
       <c r="G152" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="J152" s="3">
+        <v>2</v>
+      </c>
+      <c r="K152" s="4">
+        <v>1.7346E-2</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M152" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="H152" s="3">
-        <v>0</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="J152" s="3">
-        <v>29</v>
-      </c>
-      <c r="K152" s="4">
-        <v>0.25151800000000002</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8973,34 +9061,34 @@
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>272</v>
+        <v>505</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>506</v>
+        <v>172</v>
       </c>
       <c r="J153" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K153" s="4">
-        <v>1.7346E-2</v>
+        <v>4.3365000000000001E-2</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9014,10 +9102,10 @@
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>507</v>
@@ -9029,19 +9117,19 @@
         <v>0</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>172</v>
+        <v>509</v>
       </c>
       <c r="J154" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K154" s="4">
-        <v>4.3365000000000001E-2</v>
+        <v>6.9384000000000001E-2</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9055,13 +9143,13 @@
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>510</v>
@@ -9073,16 +9161,16 @@
         <v>511</v>
       </c>
       <c r="J155" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K155" s="4">
-        <v>6.9384000000000001E-2</v>
+        <v>8.6730000000000002E-3</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9096,37 +9184,37 @@
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J156" s="3">
+        <v>4</v>
+      </c>
+      <c r="K156" s="4">
+        <v>3.4692000000000001E-2</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M156" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H156" s="3">
-        <v>0</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J156" s="3">
-        <v>1</v>
-      </c>
-      <c r="K156" s="4">
-        <v>8.6730000000000002E-3</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M156" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>13</v>
       </c>
@@ -9137,10 +9225,10 @@
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>515</v>
@@ -9152,22 +9240,22 @@
         <v>0</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>268</v>
+        <v>517</v>
       </c>
       <c r="J157" s="3">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="K157" s="4">
-        <v>3.4692000000000001E-2</v>
+        <v>0.39028600000000002</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
@@ -9178,34 +9266,34 @@
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H158" s="3">
         <v>0</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J158" s="3">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="K158" s="4">
-        <v>0.39028600000000002</v>
+        <v>6.9384000000000001E-2</v>
       </c>
       <c r="L158" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9219,22 +9307,22 @@
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H159" s="3">
         <v>0</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J159" s="3">
         <v>8</v>
@@ -9246,7 +9334,7 @@
         <v>20</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9260,34 +9348,34 @@
         <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>525</v>
+        <v>424</v>
       </c>
       <c r="J160" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K160" s="4">
-        <v>6.9384000000000001E-2</v>
+        <v>4.3365000000000001E-2</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9301,7 +9389,7 @@
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>39</v>
@@ -9316,19 +9404,19 @@
         <v>0</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>424</v>
+        <v>528</v>
       </c>
       <c r="J161" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K161" s="4">
-        <v>4.3365000000000001E-2</v>
+        <v>6.0711000000000001E-2</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9342,34 +9430,34 @@
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H162" s="3">
         <v>0</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J162" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K162" s="4">
-        <v>6.0711000000000001E-2</v>
+        <v>0.14744099999999999</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9383,34 +9471,34 @@
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H163" s="3">
         <v>0</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>533</v>
+        <v>35</v>
       </c>
       <c r="J163" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K163" s="4">
-        <v>0.14744099999999999</v>
+        <v>0.104076</v>
       </c>
       <c r="L163" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9424,7 +9512,7 @@
         <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>26</v>
@@ -9439,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>35</v>
+        <v>536</v>
       </c>
       <c r="J164" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K164" s="4">
-        <v>0.104076</v>
+        <v>0.190807</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9465,78 +9553,78 @@
         <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H165" s="3">
         <v>0</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J165" s="3">
+        <v>34</v>
+      </c>
+      <c r="K165" s="4">
+        <v>0.29488300000000001</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J166" s="3">
         <v>22</v>
       </c>
-      <c r="K165" s="4">
+      <c r="K166" s="4">
         <v>0.190807</v>
       </c>
-      <c r="L165" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H166" s="3">
-        <v>0</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="J166" s="3">
-        <v>34</v>
-      </c>
-      <c r="K166" s="4">
-        <v>0.29488300000000001</v>
-      </c>
       <c r="L166" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -9547,34 +9635,34 @@
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>542</v>
+        <v>164</v>
       </c>
       <c r="G167" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J167" s="3">
+        <v>5</v>
+      </c>
+      <c r="K167" s="4">
+        <v>4.3365000000000001E-2</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M167" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="H167" s="3">
-        <v>0</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="J167" s="3">
-        <v>22</v>
-      </c>
-      <c r="K167" s="4">
-        <v>0.190807</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9588,34 +9676,34 @@
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>164</v>
+        <v>547</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H168" s="3">
         <v>0</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J168" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K168" s="4">
-        <v>4.3365000000000001E-2</v>
+        <v>9.4847000000000001E-2</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9629,34 +9717,34 @@
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>184</v>
+        <v>551</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H169" s="3">
         <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="J169" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K169" s="4">
-        <v>9.4847000000000001E-2</v>
+        <v>4.5844999999999997E-2</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9670,34 +9758,34 @@
         <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>553</v>
+        <v>16</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H170" s="3">
         <v>0</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J170" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K170" s="4">
-        <v>4.5844999999999997E-2</v>
+        <v>8.6969999999999999E-3</v>
       </c>
       <c r="L170" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9711,34 +9799,34 @@
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J171" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K171" s="4">
-        <v>8.6969999999999999E-3</v>
+        <v>2.6091E-2</v>
       </c>
       <c r="L171" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9752,34 +9840,34 @@
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G172" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J172" s="3">
+        <v>13</v>
+      </c>
+      <c r="K172" s="4">
+        <v>0.113063</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M172" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="H172" s="3">
-        <v>0</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="J172" s="3">
-        <v>3</v>
-      </c>
-      <c r="K172" s="4">
-        <v>2.6091E-2</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9793,10 +9881,10 @@
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>566</v>
@@ -9808,19 +9896,19 @@
         <v>0</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>359</v>
+        <v>568</v>
       </c>
       <c r="J173" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K173" s="4">
-        <v>0.113063</v>
+        <v>5.2183E-2</v>
       </c>
       <c r="L173" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9834,16 +9922,16 @@
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>569</v>
+        <v>389</v>
       </c>
       <c r="H174" s="3">
         <v>0</v>
@@ -9852,16 +9940,16 @@
         <v>570</v>
       </c>
       <c r="J174" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K174" s="4">
-        <v>5.2183E-2</v>
+        <v>0.17394299999999999</v>
       </c>
       <c r="L174" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9875,37 +9963,37 @@
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J175" s="3">
+        <v>10</v>
+      </c>
+      <c r="K175" s="4">
+        <v>8.6971999999999994E-2</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M175" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H175" s="3">
-        <v>0</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="J175" s="3">
-        <v>20</v>
-      </c>
-      <c r="K175" s="4">
-        <v>0.17394299999999999</v>
-      </c>
-      <c r="L175" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M175" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>13</v>
       </c>
@@ -9916,7 +10004,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>86</v>
@@ -9931,22 +10019,22 @@
         <v>0</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>489</v>
+        <v>576</v>
       </c>
       <c r="J176" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K176" s="4">
-        <v>8.6971999999999994E-2</v>
+        <v>0.13045699999999999</v>
       </c>
       <c r="L176" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>13</v>
       </c>
@@ -9957,13 +10045,13 @@
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>576</v>
+        <v>213</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>577</v>
@@ -9975,16 +10063,16 @@
         <v>578</v>
       </c>
       <c r="J177" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K177" s="4">
-        <v>0.13045699999999999</v>
+        <v>0.12175999999999999</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9998,37 +10086,37 @@
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>213</v>
+        <v>579</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H178" s="3">
         <v>0</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J178" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K178" s="4">
-        <v>0.12175999999999999</v>
+        <v>9.5669000000000004E-2</v>
       </c>
       <c r="L178" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>13</v>
       </c>
@@ -10039,16 +10127,16 @@
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>582</v>
+        <v>529</v>
       </c>
       <c r="H179" s="3">
         <v>0</v>
@@ -10057,19 +10145,19 @@
         <v>583</v>
       </c>
       <c r="J179" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K179" s="4">
-        <v>9.5669000000000004E-2</v>
+        <v>0.17394299999999999</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>13</v>
       </c>
@@ -10080,34 +10168,34 @@
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F180" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H180" s="3">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="J180" s="3">
+        <v>5</v>
+      </c>
+      <c r="K180" s="4">
+        <v>4.3485999999999997E-2</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M180" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H180" s="3">
-        <v>0</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="J180" s="3">
-        <v>20</v>
-      </c>
-      <c r="K180" s="4">
-        <v>0.17394299999999999</v>
-      </c>
-      <c r="L180" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M180" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10121,34 +10209,34 @@
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H181" s="3">
         <v>0</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J181" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K181" s="4">
-        <v>4.3485999999999997E-2</v>
+        <v>0.13045699999999999</v>
       </c>
       <c r="L181" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10162,37 +10250,37 @@
         <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H182" s="3">
         <v>0</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J182" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K182" s="4">
-        <v>0.13045699999999999</v>
+        <v>7.8273999999999996E-2</v>
       </c>
       <c r="L182" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -10203,16 +10291,16 @@
         <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="H183" s="3">
         <v>0</v>
@@ -10221,19 +10309,19 @@
         <v>595</v>
       </c>
       <c r="J183" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K183" s="4">
-        <v>7.8273999999999996E-2</v>
+        <v>0.12175999999999999</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>13</v>
       </c>
@@ -10244,7 +10332,7 @@
         <v>14</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>39</v>
@@ -10253,7 +10341,7 @@
         <v>596</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>539</v>
+        <v>103</v>
       </c>
       <c r="H184" s="3">
         <v>0</v>
@@ -10262,16 +10350,16 @@
         <v>597</v>
       </c>
       <c r="J184" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K184" s="4">
-        <v>0.12175999999999999</v>
+        <v>7.8273999999999996E-2</v>
       </c>
       <c r="L184" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10285,34 +10373,34 @@
         <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>103</v>
+        <v>600</v>
       </c>
       <c r="H185" s="3">
         <v>0</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J185" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K185" s="4">
-        <v>7.8273999999999996E-2</v>
+        <v>9.3644000000000005E-2</v>
       </c>
       <c r="L185" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10326,34 +10414,34 @@
         <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G186" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="J186" s="3">
+        <v>1</v>
+      </c>
+      <c r="K186" s="4">
+        <v>5.8529999999999997E-3</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M186" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="H186" s="3">
-        <v>0</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="J186" s="3">
-        <v>16</v>
-      </c>
-      <c r="K186" s="4">
-        <v>9.3644000000000005E-2</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M186" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10367,34 +10455,34 @@
         <v>14</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>605</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H187" s="3">
         <v>0</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J187" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K187" s="4">
-        <v>5.8529999999999997E-3</v>
+        <v>2.3411000000000001E-2</v>
       </c>
       <c r="L187" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10408,34 +10496,34 @@
         <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H188" s="3">
         <v>0</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J188" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K188" s="4">
-        <v>2.3411000000000001E-2</v>
+        <v>0.11705500000000001</v>
       </c>
       <c r="L188" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10449,34 +10537,34 @@
         <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G189" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H189" s="3">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="J189" s="3">
+        <v>5</v>
+      </c>
+      <c r="K189" s="4">
+        <v>2.9263999999999998E-2</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M189" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="H189" s="3">
-        <v>0</v>
-      </c>
-      <c r="I189" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="J189" s="3">
-        <v>20</v>
-      </c>
-      <c r="K189" s="4">
-        <v>0.11705500000000001</v>
-      </c>
-      <c r="L189" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M189" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10490,34 +10578,34 @@
         <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H190" s="3">
         <v>0</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J190" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K190" s="4">
-        <v>2.9263999999999998E-2</v>
+        <v>4.0968999999999998E-2</v>
       </c>
       <c r="L190" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10531,34 +10619,34 @@
         <v>14</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H191" s="3">
         <v>0</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J191" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K191" s="4">
-        <v>4.0968999999999998E-2</v>
+        <v>4.6822000000000003E-2</v>
       </c>
       <c r="L191" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10572,13 +10660,13 @@
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>621</v>
@@ -10587,19 +10675,19 @@
         <v>0</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="J192" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K192" s="4">
-        <v>4.6822000000000003E-2</v>
+        <v>5.8529999999999997E-3</v>
       </c>
       <c r="L192" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10613,13 +10701,13 @@
         <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>623</v>
@@ -10628,22 +10716,22 @@
         <v>0</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="J193" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K193" s="4">
-        <v>5.8529999999999997E-3</v>
+        <v>2.3411000000000001E-2</v>
       </c>
       <c r="L193" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>13</v>
       </c>
@@ -10654,37 +10742,37 @@
         <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>238</v>
+        <v>369</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H194" s="3">
         <v>0</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J194" s="3">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="K194" s="4">
-        <v>2.3411000000000001E-2</v>
+        <v>0.47992499999999999</v>
       </c>
       <c r="L194" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>13</v>
       </c>
@@ -10695,34 +10783,34 @@
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>627</v>
+        <v>59</v>
       </c>
       <c r="G195" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H195" s="3">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J195" s="3">
+        <v>66</v>
+      </c>
+      <c r="K195" s="4">
+        <v>0.28551700000000002</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M195" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="H195" s="3">
-        <v>0</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="J195" s="3">
-        <v>82</v>
-      </c>
-      <c r="K195" s="4">
-        <v>0.47992499999999999</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M195" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10736,34 +10824,34 @@
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>59</v>
+        <v>633</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H196" s="3">
         <v>0</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="J196" s="3">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="K196" s="4">
-        <v>0.28551700000000002</v>
+        <v>6.1539999999999997E-3</v>
       </c>
       <c r="L196" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10777,34 +10865,34 @@
         <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>58</v>
+        <v>551</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G197" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H197" s="3">
+        <v>0</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J197" s="3">
+        <v>20</v>
+      </c>
+      <c r="K197" s="4">
+        <v>0.73126100000000005</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M197" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="H197" s="3">
-        <v>0</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="J197" s="3">
-        <v>2</v>
-      </c>
-      <c r="K197" s="4">
-        <v>6.1539999999999997E-3</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M197" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10818,34 +10906,34 @@
         <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>553</v>
+        <v>81</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H198" s="3">
         <v>0</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="J198" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K198" s="4">
-        <v>0.73126100000000005</v>
+        <v>5.9524000000000001E-2</v>
       </c>
       <c r="L198" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10859,34 +10947,34 @@
         <v>14</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H199" s="3">
         <v>0</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J199" s="3">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K199" s="4">
-        <v>5.9524000000000001E-2</v>
+        <v>0.107887</v>
       </c>
       <c r="L199" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10900,34 +10988,34 @@
         <v>14</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>86</v>
+        <v>443</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G200" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H200" s="3">
+        <v>0</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="J200" s="3">
+        <v>4</v>
+      </c>
+      <c r="K200" s="4">
+        <v>1.4881E-2</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M200" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="H200" s="3">
-        <v>0</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="J200" s="3">
-        <v>29</v>
-      </c>
-      <c r="K200" s="4">
-        <v>0.107887</v>
-      </c>
-      <c r="L200" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M200" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10941,22 +11029,22 @@
         <v>14</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F201" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+      <c r="I201" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="H201" s="3">
-        <v>0</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="J201" s="3">
         <v>4</v>
@@ -10968,7 +11056,7 @@
         <v>20</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10982,34 +11070,34 @@
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="H202" s="3">
         <v>0</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="J202" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="K202" s="4">
-        <v>1.4881E-2</v>
+        <v>0.107887</v>
       </c>
       <c r="L202" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11023,34 +11111,34 @@
         <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G203" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H203" s="3">
+        <v>0</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="J203" s="3">
+        <v>5</v>
+      </c>
+      <c r="K203" s="4">
+        <v>1.8600999999999999E-2</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M203" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="H203" s="3">
-        <v>0</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="J203" s="3">
-        <v>29</v>
-      </c>
-      <c r="K203" s="4">
-        <v>0.107887</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M203" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11064,34 +11152,34 @@
         <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H204" s="3">
         <v>0</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="J204" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K204" s="4">
-        <v>1.8600999999999999E-2</v>
+        <v>1.4881E-2</v>
       </c>
       <c r="L204" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11105,10 +11193,10 @@
         <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>449</v>
+        <v>16</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>658</v>
@@ -11120,19 +11208,19 @@
         <v>0</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="J205" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K205" s="4">
-        <v>1.4881E-2</v>
+        <v>7.4400000000000004E-3</v>
       </c>
       <c r="L205" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11146,34 +11234,34 @@
         <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G206" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J206" s="3">
+        <v>6</v>
+      </c>
+      <c r="K206" s="4">
+        <v>2.2321000000000001E-2</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M206" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="H206" s="3">
-        <v>0</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="J206" s="3">
-        <v>2</v>
-      </c>
-      <c r="K206" s="4">
-        <v>7.4400000000000004E-3</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M206" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11187,10 +11275,10 @@
         <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>664</v>
@@ -11202,19 +11290,19 @@
         <v>0</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>261</v>
+        <v>666</v>
       </c>
       <c r="J207" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K207" s="4">
-        <v>2.2321000000000001E-2</v>
+        <v>2.6041999999999999E-2</v>
       </c>
       <c r="L207" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11228,34 +11316,34 @@
         <v>14</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H208" s="3">
         <v>0</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J208" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K208" s="4">
-        <v>2.6041999999999999E-2</v>
+        <v>1.4881E-2</v>
       </c>
       <c r="L208" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11269,34 +11357,34 @@
         <v>14</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H209" s="3">
         <v>0</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J209" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K209" s="4">
-        <v>1.4881E-2</v>
+        <v>5.9524000000000001E-2</v>
       </c>
       <c r="L209" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11310,34 +11398,34 @@
         <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G210" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J210" s="3">
+        <v>6</v>
+      </c>
+      <c r="K210" s="4">
+        <v>2.2321000000000001E-2</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M210" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="H210" s="3">
-        <v>0</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="J210" s="3">
-        <v>16</v>
-      </c>
-      <c r="K210" s="4">
-        <v>5.9524000000000001E-2</v>
-      </c>
-      <c r="L210" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M210" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11351,7 +11439,7 @@
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>16</v>
@@ -11360,25 +11448,25 @@
         <v>676</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H211" s="3">
         <v>0</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J211" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K211" s="4">
-        <v>2.2321000000000001E-2</v>
+        <v>3.7200000000000002E-3</v>
       </c>
       <c r="L211" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11392,13 +11480,13 @@
         <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>678</v>
@@ -11407,19 +11495,19 @@
         <v>0</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="J212" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K212" s="4">
-        <v>3.7200000000000002E-3</v>
+        <v>1.4881E-2</v>
       </c>
       <c r="L212" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11433,34 +11521,34 @@
         <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>679</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H213" s="3">
         <v>0</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>25</v>
+        <v>558</v>
       </c>
       <c r="J213" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K213" s="4">
-        <v>1.4881E-2</v>
+        <v>3.7200000000000002E-3</v>
       </c>
       <c r="L213" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11474,13 +11562,13 @@
         <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>681</v>
@@ -11489,19 +11577,19 @@
         <v>0</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>560</v>
+        <v>682</v>
       </c>
       <c r="J214" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K214" s="4">
-        <v>3.7200000000000002E-3</v>
+        <v>4.4643000000000002E-2</v>
       </c>
       <c r="L214" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11515,34 +11603,34 @@
         <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H215" s="3">
         <v>0</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J215" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K215" s="4">
-        <v>4.4643000000000002E-2</v>
+        <v>1.4881E-2</v>
       </c>
       <c r="L215" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11556,37 +11644,37 @@
         <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>643</v>
+        <v>686</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H216" s="3">
         <v>0</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="J216" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K216" s="4">
-        <v>1.4881E-2</v>
+        <v>2.6929000000000002E-2</v>
       </c>
       <c r="L216" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>13</v>
       </c>
@@ -11597,37 +11685,37 @@
         <v>14</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>690</v>
+        <v>60</v>
       </c>
       <c r="H217" s="3">
         <v>0</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J217" s="3">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="K217" s="4">
-        <v>2.6929000000000002E-2</v>
+        <v>0.24361099999999999</v>
       </c>
       <c r="L217" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>13</v>
       </c>
@@ -11638,34 +11726,34 @@
         <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>693</v>
+        <v>15</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>60</v>
+        <v>696</v>
       </c>
       <c r="H218" s="3">
         <v>0</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="J218" s="3">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="K218" s="4">
-        <v>0.24361099999999999</v>
+        <v>0.13744999999999999</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>20</v>
+        <v>698</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11682,31 +11770,31 @@
         <v>15</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="G219" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H219" s="3">
+        <v>0</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="J219" s="3">
+        <v>2</v>
+      </c>
+      <c r="K219" s="4">
+        <v>1.0573000000000001E-2</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H219" s="3">
-        <v>0</v>
-      </c>
-      <c r="I219" s="2" t="s">
+      <c r="M219" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="J219" s="3">
-        <v>26</v>
-      </c>
-      <c r="K219" s="4">
-        <v>0.13744999999999999</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="M219" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11723,31 +11811,31 @@
         <v>15</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H220" s="3">
         <v>0</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J220" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K220" s="4">
-        <v>1.0573000000000001E-2</v>
+        <v>6.8724999999999994E-2</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11761,34 +11849,34 @@
         <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H221" s="3">
         <v>0</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J221" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K221" s="4">
-        <v>6.8724999999999994E-2</v>
+        <v>7.0308999999999996E-2</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11805,19 +11893,19 @@
         <v>63</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>709</v>
+        <v>132</v>
       </c>
       <c r="H222" s="3">
         <v>0</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J222" s="3">
         <v>7</v>
@@ -11826,10 +11914,10 @@
         <v>7.0308999999999996E-2</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11843,34 +11931,34 @@
         <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>63</v>
+        <v>641</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>131</v>
+        <v>447</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>712</v>
+        <v>658</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>132</v>
+        <v>659</v>
       </c>
       <c r="H223" s="3">
         <v>0</v>
       </c>
       <c r="I223" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="J223" s="3">
+        <v>2</v>
+      </c>
+      <c r="K223" s="4">
+        <v>7.4400000000000004E-3</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M223" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="J223" s="3">
-        <v>7</v>
-      </c>
-      <c r="K223" s="4">
-        <v>7.0308999999999996E-2</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="M223" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11884,34 +11972,34 @@
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H224" s="3">
         <v>0</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>662</v>
+        <v>261</v>
       </c>
       <c r="J224" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K224" s="4">
-        <v>7.4400000000000004E-3</v>
+        <v>2.2321000000000001E-2</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11925,10 +12013,10 @@
         <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>664</v>
@@ -11940,19 +12028,19 @@
         <v>0</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>261</v>
+        <v>666</v>
       </c>
       <c r="J225" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K225" s="4">
-        <v>2.2321000000000001E-2</v>
+        <v>2.6041999999999999E-2</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="226" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11966,34 +12054,34 @@
         <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H226" s="3">
         <v>0</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J226" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K226" s="4">
-        <v>2.6041999999999999E-2</v>
+        <v>1.4881E-2</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12007,34 +12095,34 @@
         <v>14</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="H227" s="3">
         <v>0</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>671</v>
+        <v>261</v>
       </c>
       <c r="J227" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K227" s="4">
-        <v>1.4881E-2</v>
+        <v>2.2321000000000001E-2</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12048,34 +12136,34 @@
         <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>676</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H228" s="3">
         <v>0</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J228" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K228" s="4">
-        <v>2.2321000000000001E-2</v>
+        <v>3.7200000000000002E-3</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12089,34 +12177,34 @@
         <v>14</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="H229" s="3">
         <v>0</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>263</v>
+        <v>672</v>
       </c>
       <c r="J229" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K229" s="4">
-        <v>3.7200000000000002E-3</v>
+        <v>5.9524000000000001E-2</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12130,34 +12218,34 @@
         <v>14</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>673</v>
+        <v>715</v>
       </c>
       <c r="H230" s="3">
         <v>0</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="J230" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K230" s="4">
-        <v>5.9524000000000001E-2</v>
+        <v>1.4881E-2</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12171,34 +12259,34 @@
         <v>14</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>679</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H231" s="3">
         <v>0</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J231" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K231" s="4">
-        <v>1.4881E-2</v>
+        <v>2.9762E-2</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12212,34 +12300,34 @@
         <v>14</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F232" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="H232" s="3">
+        <v>0</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J232" s="3">
+        <v>12</v>
+      </c>
+      <c r="K232" s="4">
+        <v>4.4643000000000002E-2</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M232" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="H232" s="3">
-        <v>0</v>
-      </c>
-      <c r="I232" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="J232" s="3">
-        <v>8</v>
-      </c>
-      <c r="K232" s="4">
-        <v>2.9762E-2</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="M232" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12253,34 +12341,34 @@
         <v>14</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H233" s="3">
         <v>0</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J233" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K233" s="4">
-        <v>4.4643000000000002E-2</v>
+        <v>1.4881E-2</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12294,34 +12382,34 @@
         <v>14</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="H234" s="3">
         <v>0</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="J234" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K234" s="4">
-        <v>1.4881E-2</v>
+        <v>3.7201999999999999E-2</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12335,22 +12423,22 @@
         <v>14</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="F235" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0</v>
+      </c>
+      <c r="I235" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="H235" s="3">
-        <v>0</v>
-      </c>
-      <c r="I235" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="J235" s="3">
         <v>10</v>
@@ -12359,10 +12447,10 @@
         <v>3.7201999999999999E-2</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12376,22 +12464,22 @@
         <v>14</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F236" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H236" s="3">
+        <v>0</v>
+      </c>
+      <c r="I236" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="H236" s="3">
-        <v>0</v>
-      </c>
-      <c r="I236" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="J236" s="3">
         <v>10</v>
@@ -12400,10 +12488,10 @@
         <v>3.7201999999999999E-2</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12417,22 +12505,22 @@
         <v>14</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F237" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H237" s="3">
+        <v>0</v>
+      </c>
+      <c r="I237" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="H237" s="3">
-        <v>0</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="J237" s="3">
         <v>10</v>
@@ -12441,10 +12529,10 @@
         <v>3.7201999999999999E-2</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12458,37 +12546,37 @@
         <v>14</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>643</v>
+        <v>163</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>449</v>
+        <v>136</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H238" s="3">
         <v>0</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J238" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K238" s="4">
-        <v>3.7201999999999999E-2</v>
+        <v>7.7826000000000006E-2</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>13</v>
       </c>
@@ -12502,34 +12590,34 @@
         <v>163</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H239" s="3">
         <v>0</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J239" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K239" s="4">
-        <v>7.7826000000000006E-2</v>
+        <v>8.3811999999999998E-2</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>13</v>
       </c>
@@ -12540,34 +12628,731 @@
         <v>14</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H240" s="3">
+        <v>0</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="J240" s="3">
+        <v>23</v>
+      </c>
+      <c r="K240" s="4">
+        <v>0.12159</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H241" s="3">
+        <v>0</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="J241" s="3">
+        <v>24</v>
+      </c>
+      <c r="K241" s="4">
+        <v>0.174203</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="H240" s="3">
-        <v>0</v>
-      </c>
-      <c r="I240" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="J240" s="3">
-        <v>14</v>
-      </c>
-      <c r="K240" s="4">
-        <v>8.3811999999999998E-2</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="M240" s="1" t="s">
-        <v>734</v>
+      <c r="E242" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H242" s="3">
+        <v>0</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J242" s="3">
+        <v>2</v>
+      </c>
+      <c r="K242" s="4">
+        <v>1.1972999999999999E-2</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H243" s="3">
+        <v>0</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J243" s="3">
+        <v>5</v>
+      </c>
+      <c r="K243" s="4">
+        <v>2.9933000000000001E-2</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H244" s="3">
+        <v>0</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="J244" s="3">
+        <v>4</v>
+      </c>
+      <c r="K244" s="4">
+        <v>2.3945999999999999E-2</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H245" s="3">
+        <v>0</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="J245" s="3">
+        <v>4</v>
+      </c>
+      <c r="K245" s="4">
+        <v>2.3945999999999999E-2</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="J246" s="3">
+        <v>4</v>
+      </c>
+      <c r="K246" s="4">
+        <v>2.3945999999999999E-2</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A247" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H247" s="3">
+        <v>0</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J247" s="3">
+        <v>4</v>
+      </c>
+      <c r="K247" s="4">
+        <v>2.3945999999999999E-2</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="H248" s="3">
+        <v>0</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="J248" s="3">
+        <v>5</v>
+      </c>
+      <c r="K248" s="4">
+        <v>2.9933000000000001E-2</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="J249" s="3">
+        <v>4</v>
+      </c>
+      <c r="K249" s="4">
+        <v>2.3945999999999999E-2</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="H250" s="3">
+        <v>0</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="J250" s="3">
+        <v>5</v>
+      </c>
+      <c r="K250" s="4">
+        <v>2.9933000000000001E-2</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J251" s="3">
+        <v>4</v>
+      </c>
+      <c r="K251" s="4">
+        <v>2.3945999999999999E-2</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J252" s="3">
+        <v>2</v>
+      </c>
+      <c r="K252" s="4">
+        <v>1.1972999999999999E-2</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J253" s="3">
+        <v>3</v>
+      </c>
+      <c r="K253" s="4">
+        <v>1.796E-2</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J254" s="3">
+        <v>4</v>
+      </c>
+      <c r="K254" s="4">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="H255" s="3">
+        <v>0</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="J255" s="3">
+        <v>8</v>
+      </c>
+      <c r="K255" s="4">
+        <v>3.8601000000000003E-2</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H256" s="3">
+        <v>0</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J256" s="3">
+        <v>5</v>
+      </c>
+      <c r="K256" s="4">
+        <v>4.3485999999999997E-2</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H257" s="3">
+        <v>0</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J257" s="3">
+        <v>4</v>
+      </c>
+      <c r="K257" s="4">
+        <v>3.4789E-2</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
